--- a/src/test/resources/invalidLoginData.xlsx
+++ b/src/test/resources/invalidLoginData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azizu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azizu\IdeaProjects\CucumberFrameworkBatch2\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ECF9AF6-6A2E-473E-925D-0F6D2CED0042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB1168B-215D-47D7-B19C-8FD84A9465B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="525" yWindow="975" windowWidth="15165" windowHeight="9270" xr2:uid="{669635ED-9198-4874-8C4A-8448AFDFD01F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
     <t xml:space="preserve"> adm123 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Username and Password is Wrong!</t>
+    <t>Username and Password is Wrong!</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
